--- a/draw_Apple_logo/apple_logo_coordinates.xlsx
+++ b/draw_Apple_logo/apple_logo_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renjie.Liu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A045417-9BD2-48C5-92CA-250754DA98B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C2144-BD88-4DB2-B417-725B5DAADB97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2A751E0-1BAA-4033-A01F-10C20EAC6A2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80C00A2D-EC0C-4557-8C71-A8B79CB9C9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -46,33 +46,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Base 13</t>
-  </si>
-  <si>
-    <t>Left 5</t>
-  </si>
-  <si>
-    <t>Right 5</t>
-  </si>
-  <si>
-    <t>Bottom 8</t>
-  </si>
-  <si>
-    <t>top left 8</t>
-  </si>
-  <si>
-    <t>top right 8</t>
-  </si>
-  <si>
-    <t>left 3</t>
-  </si>
-  <si>
-    <t>right 3</t>
-  </si>
-  <si>
-    <t>bite 8</t>
   </si>
 </sst>
 </file>
@@ -423,16 +396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D077725-B398-4CBA-BCD0-A71058328F2D}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95485FA-E8D7-4541-83C1-6442AA73ACAB}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,128 +424,178 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>-239</v>
       </c>
       <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>244.2</v>
+        <v>312</v>
       </c>
       <c r="B3">
-        <v>259.7</v>
+        <v>-239</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>255.8</v>
+        <v>238</v>
       </c>
       <c r="B4">
-        <v>259.7</v>
+        <v>-98</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B5">
-        <v>271.3</v>
+        <v>-83</v>
       </c>
       <c r="C5">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>243.2</v>
+        <v>320</v>
       </c>
       <c r="B6">
-        <v>245</v>
+        <v>-157</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>256.8</v>
+        <v>418</v>
       </c>
       <c r="B7">
-        <v>245</v>
+        <v>-287</v>
       </c>
       <c r="C7">
         <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>238.4</v>
+        <v>299</v>
       </c>
       <c r="B8">
-        <v>254.5</v>
+        <v>-396</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>261.60000000000002</v>
+        <v>238</v>
       </c>
       <c r="B9">
-        <v>254.5</v>
+        <v>-514</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>267.39999999999998</v>
+        <v>238</v>
       </c>
       <c r="B10">
-        <v>247.7</v>
+        <v>-396</v>
       </c>
       <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>-396</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>299</v>
+      </c>
+      <c r="B12">
+        <v>-396</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>-344</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>363</v>
+      </c>
+      <c r="B14">
+        <v>-344</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>-277</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <v>-277</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>238</v>
+      </c>
+      <c r="B17">
+        <v>-298</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/draw_Apple_logo/apple_logo_coordinates.xlsx
+++ b/draw_Apple_logo/apple_logo_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renjie.Liu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C2144-BD88-4DB2-B417-725B5DAADB97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB304D6-810C-4784-8FD6-DED074C9C3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80C00A2D-EC0C-4557-8C71-A8B79CB9C9DE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>X</t>
   </si>
@@ -46,6 +46,75 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left leaf intersect </t>
+  </si>
+  <si>
+    <t>right leaf intersect</t>
+  </si>
+  <si>
+    <t>circle Number</t>
+  </si>
+  <si>
+    <t>minus bite 6</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>middle small</t>
+  </si>
+  <si>
+    <t>left 5</t>
+  </si>
+  <si>
+    <t>right 5</t>
+  </si>
+  <si>
+    <t>left 3</t>
+  </si>
+  <si>
+    <t>right 3</t>
+  </si>
+  <si>
+    <t>left biggest</t>
+  </si>
+  <si>
+    <t>right biggest</t>
+  </si>
+  <si>
+    <t>middle 13</t>
+  </si>
+  <si>
+    <t>top left</t>
+  </si>
+  <si>
+    <t>top right</t>
+  </si>
+  <si>
+    <t>left leaf</t>
+  </si>
+  <si>
+    <t>right leaf</t>
+  </si>
+  <si>
+    <t>apple top</t>
+  </si>
+  <si>
+    <t>to assist drawing the bite</t>
+  </si>
+  <si>
+    <t>bite assist</t>
   </si>
 </sst>
 </file>
@@ -61,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,204 +473,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95485FA-E8D7-4541-83C1-6442AA73ACAB}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>156</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>-239</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
         <v>312</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>-239</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>238</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>-98</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
         <v>235</v>
       </c>
-      <c r="B5">
+      <c r="D5" s="1">
         <v>-83</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
         <v>320</v>
       </c>
-      <c r="B6">
+      <c r="D6" s="1">
         <v>-157</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>418</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>-287</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>299</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>-396</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>238</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>-514</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>238</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>-396</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>177</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>-396</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>299</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>-396</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>114</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>-344</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
         <v>363</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>-344</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>204</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>-277</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>271</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>-277</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>238</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>-298</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>13</v>
       </c>
     </row>
